--- a/Documentación/Casos de prueba.xlsx
+++ b/Documentación/Casos de prueba.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Escritorio\BD1\ProyectoII_BasesI_2018\Documentación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisg\Desktop\Alejandro\TEC\2018\V Semestre\Bases de Datos I\Progra II\ProyectoII_BasesI_2018\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AFA5579-CC12-4554-A119-51A9B4DFF33C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13392"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -245,9 +244,6 @@
     <t>Estadística del top de productos más canjeados los comercios.</t>
   </si>
   <si>
-    <t>Se muestra el 5 de productos canjeados por comercio.</t>
-  </si>
-  <si>
     <t>Estadística del total de puntos canjeados</t>
   </si>
   <si>
@@ -291,12 +287,15 @@
   </si>
   <si>
     <t>Listado de materiales reciclados, subdividido por tipo de material y cantidad recibida agrupada por año</t>
+  </si>
+  <si>
+    <t>Se muestra el top 5 de productos canjeados por comercio.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7">
     <font>
       <sz val="10"/>
@@ -353,7 +352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -370,6 +369,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -688,23 +688,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:G109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:F37"/>
+    <sheetView tabSelected="1" topLeftCell="C32" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="12.5546875" customWidth="1"/>
-    <col min="2" max="2" width="87.44140625" customWidth="1"/>
-    <col min="3" max="3" width="84.88671875" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1"/>
-    <col min="6" max="6" width="21.5546875" customWidth="1"/>
+    <col min="2" max="2" width="86.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="86.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
@@ -717,8 +716,8 @@
       <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="D2" s="3" t="s">
@@ -741,9 +740,15 @@
       <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="2">
@@ -755,9 +760,15 @@
       <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="2">
@@ -769,9 +780,15 @@
       <c r="C5" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0</v>
+      </c>
+      <c r="F5" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="2">
@@ -783,9 +800,15 @@
       <c r="C6" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+      <c r="D6" s="12">
+        <v>0</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0</v>
+      </c>
+      <c r="F6" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="2">
@@ -797,9 +820,15 @@
       <c r="C7" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="D7" s="12">
+        <v>0</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0</v>
+      </c>
+      <c r="F7" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="2">
@@ -811,9 +840,15 @@
       <c r="C8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="D8" s="12">
+        <v>0</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0</v>
+      </c>
+      <c r="F8" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="2">
@@ -825,9 +860,15 @@
       <c r="C9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="D9" s="12">
+        <v>0</v>
+      </c>
+      <c r="E9" s="12">
+        <v>0</v>
+      </c>
+      <c r="F9" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" s="2">
@@ -839,9 +880,15 @@
       <c r="C10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+      <c r="D10" s="12">
+        <v>1</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0</v>
+      </c>
+      <c r="F10" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" s="2">
@@ -853,9 +900,15 @@
       <c r="C11" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="D11" s="12">
+        <v>0</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0</v>
+      </c>
+      <c r="F11" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" s="2">
@@ -867,9 +920,15 @@
       <c r="C12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="D12" s="12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" s="2">
@@ -881,9 +940,15 @@
       <c r="C13" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+      <c r="D13" s="12">
+        <v>0</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0</v>
+      </c>
+      <c r="F13" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1">
       <c r="A14" s="2">
@@ -895,9 +960,15 @@
       <c r="C14" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+      <c r="D14" s="12">
+        <v>0</v>
+      </c>
+      <c r="E14" s="12">
+        <v>0</v>
+      </c>
+      <c r="F14" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1">
       <c r="A15" s="2">
@@ -909,9 +980,15 @@
       <c r="C15" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
+      <c r="D15" s="12">
+        <v>0</v>
+      </c>
+      <c r="E15" s="12">
+        <v>1</v>
+      </c>
+      <c r="F15" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1">
       <c r="A16" s="2">
@@ -923,9 +1000,15 @@
       <c r="C16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
+      <c r="D16" s="12">
+        <v>1</v>
+      </c>
+      <c r="E16" s="12">
+        <v>0</v>
+      </c>
+      <c r="F16" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1">
       <c r="A17" s="2">
@@ -937,9 +1020,15 @@
       <c r="C17" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
+      <c r="D17" s="12">
+        <v>1</v>
+      </c>
+      <c r="E17" s="12">
+        <v>0</v>
+      </c>
+      <c r="F17" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1">
       <c r="A18" s="2">
@@ -951,9 +1040,15 @@
       <c r="C18" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
+      <c r="D18" s="12">
+        <v>0</v>
+      </c>
+      <c r="E18" s="12">
+        <v>0</v>
+      </c>
+      <c r="F18" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1">
       <c r="A19" s="2">
@@ -965,9 +1060,15 @@
       <c r="C19" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
+      <c r="D19" s="12">
+        <v>0</v>
+      </c>
+      <c r="E19" s="12">
+        <v>0</v>
+      </c>
+      <c r="F19" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1">
       <c r="A20" s="2">
@@ -979,9 +1080,15 @@
       <c r="C20" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
+      <c r="D20" s="12">
+        <v>0</v>
+      </c>
+      <c r="E20" s="12">
+        <v>0</v>
+      </c>
+      <c r="F20" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1">
       <c r="A21" s="2">
@@ -993,9 +1100,15 @@
       <c r="C21" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
+      <c r="D21" s="12">
+        <v>0</v>
+      </c>
+      <c r="E21" s="12">
+        <v>0</v>
+      </c>
+      <c r="F21" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1">
       <c r="A22" s="2">
@@ -1007,9 +1120,15 @@
       <c r="C22" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
+      <c r="D22" s="12">
+        <v>0</v>
+      </c>
+      <c r="E22" s="12">
+        <v>0</v>
+      </c>
+      <c r="F22" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1">
       <c r="A23" s="2">
@@ -1021,9 +1140,15 @@
       <c r="C23" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
+      <c r="D23" s="12">
+        <v>0</v>
+      </c>
+      <c r="E23" s="12">
+        <v>0</v>
+      </c>
+      <c r="F23" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1">
       <c r="A24" s="2">
@@ -1035,9 +1160,15 @@
       <c r="C24" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
+      <c r="D24" s="12">
+        <v>0</v>
+      </c>
+      <c r="E24" s="12">
+        <v>0</v>
+      </c>
+      <c r="F24" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1">
       <c r="A25" s="2">
@@ -1049,9 +1180,15 @@
       <c r="C25" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
+      <c r="D25" s="12">
+        <v>0</v>
+      </c>
+      <c r="E25" s="12">
+        <v>0</v>
+      </c>
+      <c r="F25" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1">
       <c r="A26" s="2">
@@ -1063,9 +1200,15 @@
       <c r="C26" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
+      <c r="D26" s="12">
+        <v>0</v>
+      </c>
+      <c r="E26" s="12">
+        <v>0</v>
+      </c>
+      <c r="F26" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1">
       <c r="A27" s="2">
@@ -1077,9 +1220,15 @@
       <c r="C27" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
+      <c r="D27" s="12">
+        <v>0</v>
+      </c>
+      <c r="E27" s="12">
+        <v>0</v>
+      </c>
+      <c r="F27" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1">
       <c r="A28" s="2">
@@ -1091,9 +1240,15 @@
       <c r="C28" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
+      <c r="D28" s="12">
+        <v>1</v>
+      </c>
+      <c r="E28" s="12">
+        <v>0</v>
+      </c>
+      <c r="F28" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1">
       <c r="A29" s="2">
@@ -1105,9 +1260,15 @@
       <c r="C29" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
+      <c r="D29" s="12">
+        <v>1</v>
+      </c>
+      <c r="E29" s="12">
+        <v>0</v>
+      </c>
+      <c r="F29" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1">
       <c r="A30" s="2">
@@ -1119,9 +1280,15 @@
       <c r="C30" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
+      <c r="D30" s="12">
+        <v>1</v>
+      </c>
+      <c r="E30" s="12">
+        <v>0</v>
+      </c>
+      <c r="F30" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1">
       <c r="A31" s="2">
@@ -1133,9 +1300,15 @@
       <c r="C31" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
+      <c r="D31" s="12">
+        <v>1</v>
+      </c>
+      <c r="E31" s="12">
+        <v>0</v>
+      </c>
+      <c r="F31" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1">
       <c r="A32" s="2">
@@ -1147,9 +1320,15 @@
       <c r="C32" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
+      <c r="D32" s="12">
+        <v>1</v>
+      </c>
+      <c r="E32" s="12">
+        <v>0</v>
+      </c>
+      <c r="F32" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1">
       <c r="A33" s="2">
@@ -1161,9 +1340,15 @@
       <c r="C33" t="s">
         <v>59</v>
       </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
+      <c r="D33" s="12">
+        <v>1</v>
+      </c>
+      <c r="E33" s="12">
+        <v>0</v>
+      </c>
+      <c r="F33" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1">
       <c r="A34" s="2">
@@ -1175,9 +1360,15 @@
       <c r="C34" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
+      <c r="D34" s="12">
+        <v>1</v>
+      </c>
+      <c r="E34" s="12">
+        <v>0</v>
+      </c>
+      <c r="F34" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1">
       <c r="A35" s="2">
@@ -1189,9 +1380,15 @@
       <c r="C35" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
+      <c r="D35" s="12">
+        <v>1</v>
+      </c>
+      <c r="E35" s="12">
+        <v>0</v>
+      </c>
+      <c r="F35" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1">
       <c r="A36" s="2">
@@ -1203,9 +1400,15 @@
       <c r="C36" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
+      <c r="D36" s="12">
+        <v>1</v>
+      </c>
+      <c r="E36" s="12">
+        <v>0</v>
+      </c>
+      <c r="F36" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1">
       <c r="A37" s="2">
@@ -1217,9 +1420,15 @@
       <c r="C37" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
+      <c r="D37" s="12">
+        <v>0</v>
+      </c>
+      <c r="E37" s="12">
+        <v>1</v>
+      </c>
+      <c r="F37" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1">
       <c r="A38" s="2">
@@ -1231,9 +1440,15 @@
       <c r="C38" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
+      <c r="D38" s="12">
+        <v>1</v>
+      </c>
+      <c r="E38" s="12">
+        <v>0</v>
+      </c>
+      <c r="F38" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1">
       <c r="A39" s="2">
@@ -1245,9 +1460,15 @@
       <c r="C39" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
+      <c r="D39" s="12">
+        <v>0</v>
+      </c>
+      <c r="E39" s="12">
+        <v>0</v>
+      </c>
+      <c r="F39" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" customHeight="1">
       <c r="A40" s="2">
@@ -1257,109 +1478,157 @@
         <v>73</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
+        <v>89</v>
+      </c>
+      <c r="D40" s="12">
+        <v>1</v>
+      </c>
+      <c r="E40" s="12">
+        <v>0</v>
+      </c>
+      <c r="F40" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" customHeight="1">
       <c r="A41" s="2">
         <v>39</v>
       </c>
       <c r="B41" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
+      <c r="D41" s="12">
+        <v>0</v>
+      </c>
+      <c r="E41" s="12">
+        <v>0</v>
+      </c>
+      <c r="F41" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" spans="1:6" ht="13.2">
       <c r="A42" s="2">
         <v>40</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
+      <c r="D42" s="12">
+        <v>1</v>
+      </c>
+      <c r="E42" s="12">
+        <v>0</v>
+      </c>
+      <c r="F42" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:6" ht="13.2">
       <c r="A43" s="2">
         <v>41</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
+      <c r="D43" s="12">
+        <v>1</v>
+      </c>
+      <c r="E43" s="12">
+        <v>0</v>
+      </c>
+      <c r="F43" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:6" ht="13.2">
       <c r="A44" s="2">
         <v>42</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
+        <v>82</v>
+      </c>
+      <c r="D44" s="12">
+        <v>1</v>
+      </c>
+      <c r="E44" s="12">
+        <v>0</v>
+      </c>
+      <c r="F44" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:6" ht="13.2">
       <c r="A45" s="2">
         <v>43</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
+      <c r="D45" s="12">
+        <v>1</v>
+      </c>
+      <c r="E45" s="12">
+        <v>0</v>
+      </c>
+      <c r="F45" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:6" ht="13.2">
       <c r="A46" s="2">
         <v>44</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
+      <c r="D46" s="12">
+        <v>1</v>
+      </c>
+      <c r="E46" s="12">
+        <v>0</v>
+      </c>
+      <c r="F46" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:6" ht="13.2">
       <c r="A47" s="2">
         <v>45</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C47" t="s">
-        <v>84</v>
-      </c>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
+        <v>83</v>
+      </c>
+      <c r="D47" s="12">
+        <v>1</v>
+      </c>
+      <c r="E47" s="12">
+        <v>0</v>
+      </c>
+      <c r="F47" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:6" ht="13.2">
       <c r="A48" s="2">
@@ -1369,11 +1638,17 @@
         <v>38</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
+        <v>77</v>
+      </c>
+      <c r="D48" s="12">
+        <v>0</v>
+      </c>
+      <c r="E48" s="12">
+        <v>1</v>
+      </c>
+      <c r="F48" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="1:7" ht="13.2">
       <c r="A49" s="2">
@@ -1383,11 +1658,17 @@
         <v>39</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
+        <v>81</v>
+      </c>
+      <c r="D49" s="12">
+        <v>1</v>
+      </c>
+      <c r="E49" s="12">
+        <v>0</v>
+      </c>
+      <c r="F49" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" spans="1:7" ht="13.2">
       <c r="A50" s="2">
@@ -1397,11 +1678,17 @@
         <v>57</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="D50" s="12">
+        <v>1</v>
+      </c>
+      <c r="E50" s="12">
+        <v>0</v>
+      </c>
+      <c r="F50" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="1:7" ht="13.2">
       <c r="A51" s="2">
@@ -1411,11 +1698,17 @@
         <v>58</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
+        <v>79</v>
+      </c>
+      <c r="D51" s="12">
+        <v>1</v>
+      </c>
+      <c r="E51" s="12">
+        <v>0</v>
+      </c>
+      <c r="F51" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="1:7" ht="13.2">
       <c r="A52" s="2">
@@ -1425,11 +1718,17 @@
         <v>23</v>
       </c>
       <c r="C52" t="s">
-        <v>79</v>
-      </c>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
+        <v>78</v>
+      </c>
+      <c r="D52" s="12">
+        <v>0</v>
+      </c>
+      <c r="E52" s="12">
+        <v>0</v>
+      </c>
+      <c r="F52" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="53" spans="1:7" ht="13.2">
       <c r="A53" s="2"/>
@@ -1445,7 +1744,18 @@
       <c r="C55" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D55" s="5"/>
+      <c r="D55" s="5">
+        <f t="shared" ref="D55:F55" si="0">SUM(D3:D54)</f>
+        <v>23</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
       <c r="G55" s="1">
         <v>50</v>
       </c>
@@ -1458,9 +1768,9 @@
       <c r="A57" s="5"/>
     </row>
     <row r="58" spans="1:7" ht="13.2">
-      <c r="A58" s="12"/>
-      <c r="B58" s="13"/>
-      <c r="C58" s="13"/>
+      <c r="A58" s="13"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
     </row>
     <row r="59" spans="1:7" ht="13.2">
       <c r="A59" s="5"/>

--- a/Documentación/Casos de prueba.xlsx
+++ b/Documentación/Casos de prueba.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>Identificador</t>
   </si>
@@ -211,12 +211,6 @@
     <t>Listado de los usuarios cuyas claves no han sido modificadas recientemente por cédula</t>
   </si>
   <si>
-    <t>Listado de los usuarios cuyas claves no han sido modificadas recientemente por usuario</t>
-  </si>
-  <si>
-    <t>Listado de los usuarios cuyas claves no han sido modificadas recientemente por rango de fechas</t>
-  </si>
-  <si>
     <t>Listado de usuarios por cantidad de puntos canjeados</t>
   </si>
   <si>
@@ -290,6 +284,18 @@
   </si>
   <si>
     <t>Se muestra el top 5 de productos canjeados por comercio.</t>
+  </si>
+  <si>
+    <t>Darle puntos a los usuarios</t>
+  </si>
+  <si>
+    <t>Se le dan puntos a los usuarios</t>
+  </si>
+  <si>
+    <t>Verificar que pueda canjear un producto</t>
+  </si>
+  <si>
+    <t>Si el usuario no tiene suficientes puntos no lo deja canjear</t>
   </si>
 </sst>
 </file>
@@ -352,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -370,6 +376,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -694,8 +706,8 @@
   </sheetPr>
   <dimension ref="A1:G109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C32" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -716,8 +728,8 @@
       <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="D2" s="3" t="s">
@@ -740,12 +752,8 @@
       <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0</v>
-      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
       <c r="F3" s="5">
         <v>1</v>
       </c>
@@ -760,14 +768,10 @@
       <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5">
-        <v>1</v>
-      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
       <c r="F4" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
@@ -780,12 +784,8 @@
       <c r="C5" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="12">
-        <v>0</v>
-      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
       <c r="F5" s="12">
         <v>1</v>
       </c>
@@ -800,12 +800,8 @@
       <c r="C6" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="12">
-        <v>0</v>
-      </c>
-      <c r="E6" s="12">
-        <v>0</v>
-      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
       <c r="F6" s="12">
         <v>1</v>
       </c>
@@ -820,12 +816,8 @@
       <c r="C7" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="12">
-        <v>0</v>
-      </c>
-      <c r="E7" s="12">
-        <v>0</v>
-      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
       <c r="F7" s="12">
         <v>1</v>
       </c>
@@ -840,12 +832,8 @@
       <c r="C8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="12">
-        <v>0</v>
-      </c>
-      <c r="E8" s="12">
-        <v>0</v>
-      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
       <c r="F8" s="12">
         <v>1</v>
       </c>
@@ -860,12 +848,8 @@
       <c r="C9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="12">
-        <v>0</v>
-      </c>
-      <c r="E9" s="12">
-        <v>0</v>
-      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
       <c r="F9" s="12">
         <v>1</v>
       </c>
@@ -880,14 +864,10 @@
       <c r="C10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="12">
-        <v>1</v>
-      </c>
-      <c r="E10" s="12">
-        <v>0</v>
-      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
       <c r="F10" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1">
@@ -900,12 +880,8 @@
       <c r="C11" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="12">
-        <v>0</v>
-      </c>
-      <c r="E11" s="12">
-        <v>0</v>
-      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
       <c r="F11" s="12">
         <v>1</v>
       </c>
@@ -920,12 +896,8 @@
       <c r="C12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="12">
-        <v>0</v>
-      </c>
-      <c r="E12" s="12">
-        <v>0</v>
-      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
       <c r="F12" s="12">
         <v>1</v>
       </c>
@@ -940,12 +912,8 @@
       <c r="C13" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="12">
-        <v>0</v>
-      </c>
-      <c r="E13" s="12">
-        <v>0</v>
-      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
       <c r="F13" s="12">
         <v>1</v>
       </c>
@@ -960,74 +928,58 @@
       <c r="C14" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="12">
-        <v>0</v>
-      </c>
-      <c r="E14" s="12">
-        <v>0</v>
-      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
       <c r="F14" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1">
+    <row r="15" spans="1:6" s="15" customFormat="1" ht="15.75" customHeight="1">
       <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="12">
-        <v>0</v>
-      </c>
-      <c r="E15" s="12">
-        <v>1</v>
-      </c>
-      <c r="F15" s="12">
-        <v>0</v>
+      <c r="B15" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1">
       <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>22</v>
+      <c r="B16" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="12">
-        <v>1</v>
-      </c>
-      <c r="E16" s="12">
-        <v>0</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
       <c r="F16" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="15" customFormat="1" ht="15.75" customHeight="1">
       <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="12">
-        <v>1</v>
-      </c>
-      <c r="E17" s="12">
-        <v>0</v>
-      </c>
-      <c r="F17" s="12">
-        <v>0</v>
+      <c r="B17" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1">
@@ -1035,57 +987,45 @@
         <v>16</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="12">
-        <v>0</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D18" s="12"/>
       <c r="E18" s="12">
-        <v>0</v>
-      </c>
-      <c r="F18" s="12">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1">
       <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="12">
-        <v>0</v>
-      </c>
+      <c r="B19" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="12"/>
       <c r="E19" s="12">
-        <v>0</v>
-      </c>
-      <c r="F19" s="12">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F19" s="12"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1">
       <c r="A20" s="2">
         <v>18</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="12">
-        <v>0</v>
-      </c>
-      <c r="E20" s="12">
-        <v>0</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
       <c r="F20" s="12">
         <v>1</v>
       </c>
@@ -1094,18 +1034,14 @@
       <c r="A21" s="2">
         <v>19</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="8" t="s">
+      <c r="B21" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="12">
-        <v>0</v>
-      </c>
-      <c r="E21" s="12">
-        <v>0</v>
-      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
       <c r="F21" s="12">
         <v>1</v>
       </c>
@@ -1115,17 +1051,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="12">
-        <v>0</v>
-      </c>
-      <c r="E22" s="12">
-        <v>0</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
       <c r="F22" s="12">
         <v>1</v>
       </c>
@@ -1135,17 +1067,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="12">
-        <v>0</v>
-      </c>
-      <c r="E23" s="12">
-        <v>0</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
       <c r="F23" s="12">
         <v>1</v>
       </c>
@@ -1155,17 +1083,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="12">
-        <v>0</v>
-      </c>
-      <c r="E24" s="12">
-        <v>0</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
       <c r="F24" s="12">
         <v>1</v>
       </c>
@@ -1175,17 +1099,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" s="12">
-        <v>0</v>
-      </c>
-      <c r="E25" s="12">
-        <v>0</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
       <c r="F25" s="12">
         <v>1</v>
       </c>
@@ -1195,17 +1115,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="12">
-        <v>0</v>
-      </c>
-      <c r="E26" s="12">
-        <v>0</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
       <c r="F26" s="12">
         <v>1</v>
       </c>
@@ -1215,17 +1131,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="12">
-        <v>0</v>
-      </c>
-      <c r="E27" s="12">
-        <v>0</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
       <c r="F27" s="12">
         <v>1</v>
       </c>
@@ -1235,39 +1147,31 @@
         <v>26</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" s="12">
-        <v>1</v>
-      </c>
-      <c r="E28" s="12">
-        <v>0</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
       <c r="F28" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1">
       <c r="A29" s="2">
         <v>27</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>61</v>
+      <c r="B29" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="12">
-        <v>1</v>
-      </c>
-      <c r="E29" s="12">
-        <v>0</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
       <c r="F29" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1">
@@ -1275,7 +1179,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>46</v>
@@ -1283,19 +1187,15 @@
       <c r="D30" s="12">
         <v>1</v>
       </c>
-      <c r="E30" s="12">
-        <v>0</v>
-      </c>
-      <c r="F30" s="12">
-        <v>0</v>
-      </c>
+      <c r="E30" s="13"/>
+      <c r="F30" s="14"/>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1">
       <c r="A31" s="2">
         <v>29</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>63</v>
+      <c r="B31" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>46</v>
@@ -1303,19 +1203,15 @@
       <c r="D31" s="12">
         <v>1</v>
       </c>
-      <c r="E31" s="12">
-        <v>0</v>
-      </c>
-      <c r="F31" s="12">
-        <v>0</v>
-      </c>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1">
       <c r="A32" s="2">
         <v>30</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>46</v>
@@ -1323,15 +1219,11 @@
       <c r="D32" s="12">
         <v>1</v>
       </c>
-      <c r="E32" s="12">
-        <v>0</v>
-      </c>
-      <c r="F32" s="12">
-        <v>0</v>
-      </c>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A33" s="2">
+      <c r="A33" s="16">
         <v>31</v>
       </c>
       <c r="B33" s="9" t="s">
@@ -1340,392 +1232,312 @@
       <c r="C33" t="s">
         <v>59</v>
       </c>
-      <c r="D33" s="12">
-        <v>1</v>
-      </c>
-      <c r="E33" s="12">
-        <v>0</v>
-      </c>
+      <c r="D33" s="12"/>
+      <c r="E33" s="14"/>
       <c r="F33" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A34" s="2">
+      <c r="A34" s="16">
         <v>32</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D34" s="12">
-        <v>1</v>
-      </c>
-      <c r="E34" s="12">
-        <v>0</v>
-      </c>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
       <c r="F34" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A35" s="2">
+      <c r="A35" s="16">
         <v>33</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D35" s="12">
-        <v>1</v>
-      </c>
-      <c r="E35" s="12">
-        <v>0</v>
-      </c>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
       <c r="F35" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A36" s="2">
+      <c r="A36" s="16">
         <v>34</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D36" s="12">
-        <v>1</v>
-      </c>
-      <c r="E36" s="12">
-        <v>0</v>
-      </c>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
       <c r="F36" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A37" s="2">
+      <c r="A37" s="16">
         <v>35</v>
       </c>
       <c r="B37" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A38" s="16">
+        <v>36</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C37" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D37" s="12">
-        <v>0</v>
-      </c>
-      <c r="E37" s="12">
-        <v>1</v>
-      </c>
-      <c r="F37" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A38" s="2">
-        <v>36</v>
-      </c>
-      <c r="B38" s="9" t="s">
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A39" s="16">
+        <v>37</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D38" s="12">
-        <v>1</v>
-      </c>
-      <c r="E38" s="12">
-        <v>0</v>
-      </c>
-      <c r="F38" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A39" s="2">
-        <v>37</v>
-      </c>
-      <c r="B39" s="10" t="s">
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A40" s="16">
+        <v>38</v>
+      </c>
+      <c r="B40" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C40" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A41" s="16">
+        <v>39</v>
+      </c>
+      <c r="B41" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D39" s="12">
-        <v>0</v>
-      </c>
-      <c r="E39" s="12">
-        <v>0</v>
-      </c>
-      <c r="F39" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A40" s="2">
-        <v>38</v>
-      </c>
-      <c r="B40" s="10" t="s">
+      <c r="C41" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C40" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D40" s="12">
-        <v>1</v>
-      </c>
-      <c r="E40" s="12">
-        <v>0</v>
-      </c>
-      <c r="F40" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A41" s="2">
-        <v>39</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D41" s="12">
-        <v>0</v>
-      </c>
-      <c r="E41" s="12">
-        <v>0</v>
-      </c>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
       <c r="F41" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="13.2">
-      <c r="A42" s="2">
+      <c r="A42" s="16">
         <v>40</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D42" s="12">
-        <v>1</v>
-      </c>
-      <c r="E42" s="12">
-        <v>0</v>
-      </c>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
       <c r="F42" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="13.2">
-      <c r="A43" s="2">
+      <c r="A43" s="16">
         <v>41</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D43" s="12">
-        <v>1</v>
-      </c>
-      <c r="E43" s="12">
-        <v>0</v>
-      </c>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
       <c r="F43" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="13.2">
-      <c r="A44" s="2">
+      <c r="A44" s="16">
         <v>42</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D44" s="12">
-        <v>1</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="D44" s="14"/>
       <c r="E44" s="12">
-        <v>0</v>
-      </c>
-      <c r="F44" s="12">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F44" s="12"/>
     </row>
     <row r="45" spans="1:6" ht="13.2">
-      <c r="A45" s="2">
+      <c r="A45" s="16">
         <v>43</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D45" s="12">
-        <v>1</v>
-      </c>
-      <c r="E45" s="12">
-        <v>0</v>
-      </c>
+      <c r="D45" s="14"/>
+      <c r="E45" s="12"/>
       <c r="F45" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="13.2">
-      <c r="A46" s="2">
+      <c r="A46" s="16">
         <v>44</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D46" s="12">
-        <v>1</v>
-      </c>
-      <c r="E46" s="12">
-        <v>0</v>
-      </c>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
       <c r="F46" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="13.2">
-      <c r="A47" s="2">
+      <c r="A47" s="16">
         <v>45</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C47" t="s">
-        <v>83</v>
-      </c>
-      <c r="D47" s="12">
-        <v>1</v>
-      </c>
-      <c r="E47" s="12">
-        <v>0</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
       <c r="F47" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="13.2">
-      <c r="A48" s="2">
+      <c r="A48" s="16">
         <v>46</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D48" s="12">
-        <v>0</v>
-      </c>
-      <c r="E48" s="12">
-        <v>1</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
       <c r="F48" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="13.2">
-      <c r="A49" s="2">
+      <c r="A49" s="16">
         <v>47</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D49" s="12">
-        <v>1</v>
-      </c>
-      <c r="E49" s="12">
-        <v>0</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
       <c r="F49" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="13.2">
-      <c r="A50" s="2">
+      <c r="A50" s="16">
         <v>48</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>57</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D50" s="12">
-        <v>1</v>
-      </c>
-      <c r="E50" s="12">
-        <v>0</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
       <c r="F50" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="13.2">
-      <c r="A51" s="2">
+      <c r="A51" s="16">
         <v>49</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>58</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D51" s="12">
-        <v>1</v>
-      </c>
-      <c r="E51" s="12">
-        <v>0</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
       <c r="F51" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="13.2">
-      <c r="A52" s="2">
+      <c r="A52" s="16">
         <v>50</v>
       </c>
       <c r="B52" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C52" t="s">
-        <v>78</v>
-      </c>
-      <c r="D52" s="12">
-        <v>0</v>
-      </c>
-      <c r="E52" s="12">
-        <v>0</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
       <c r="F52" s="12">
         <v>1</v>
       </c>
@@ -1746,15 +1558,15 @@
       </c>
       <c r="D55" s="5">
         <f t="shared" ref="D55:F55" si="0">SUM(D3:D54)</f>
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E55">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F55">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="G55" s="1">
         <v>50</v>
@@ -1768,9 +1580,9 @@
       <c r="A57" s="5"/>
     </row>
     <row r="58" spans="1:7" ht="13.2">
-      <c r="A58" s="13"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
+      <c r="A58" s="17"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
     </row>
     <row r="59" spans="1:7" ht="13.2">
       <c r="A59" s="5"/>

--- a/Documentación/Casos de prueba.xlsx
+++ b/Documentación/Casos de prueba.xlsx
@@ -706,8 +706,8 @@
   </sheetPr>
   <dimension ref="A1:G109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -993,10 +993,10 @@
         <v>12</v>
       </c>
       <c r="D18" s="12"/>
-      <c r="E18" s="12">
-        <v>1</v>
-      </c>
-      <c r="F18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1">
       <c r="A19" s="2">
@@ -1009,10 +1009,10 @@
         <v>35</v>
       </c>
       <c r="D19" s="12"/>
-      <c r="E19" s="12">
-        <v>1</v>
-      </c>
-      <c r="F19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1">
       <c r="A20" s="2">
@@ -1184,11 +1184,11 @@
       <c r="C30" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="12">
-        <v>1</v>
-      </c>
+      <c r="D30" s="12"/>
       <c r="E30" s="13"/>
-      <c r="F30" s="14"/>
+      <c r="F30" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1">
       <c r="A31" s="2">
@@ -1200,11 +1200,11 @@
       <c r="C31" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="12">
-        <v>1</v>
-      </c>
+      <c r="D31" s="12"/>
       <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
+      <c r="F31" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1">
       <c r="A32" s="2">
@@ -1216,11 +1216,11 @@
       <c r="C32" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D32" s="12">
-        <v>1</v>
-      </c>
+      <c r="D32" s="12"/>
       <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
+      <c r="F32" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1">
       <c r="A33" s="16">
@@ -1409,10 +1409,10 @@
         <v>80</v>
       </c>
       <c r="D44" s="14"/>
-      <c r="E44" s="12">
-        <v>1</v>
-      </c>
-      <c r="F44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:6" ht="13.2">
       <c r="A45" s="16">
@@ -1558,15 +1558,15 @@
       </c>
       <c r="D55" s="5">
         <f t="shared" ref="D55:F55" si="0">SUM(D3:D54)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E55">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F55">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G55" s="1">
         <v>50</v>
